--- a/AE Sakib/Satkhira Div-II_Backup/Regulator/Bamon Danga Sluice/Exp_Barrel.xlsx
+++ b/AE Sakib/Satkhira Div-II_Backup/Regulator/Bamon Danga Sluice/Exp_Barrel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -553,12 +553,12 @@
       <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" customHeight="1">
+    <row r="1" spans="1:6" ht="23.45" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -627,17 +627,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -859,14 +859,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1103,11 +1103,11 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1276,7 +1276,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1322,12 +1322,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="F3:G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1349,13 +1349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
